--- a/Status Update.xlsx
+++ b/Status Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,54 @@
   </si>
   <si>
     <t>Work Flow and design of project is ready</t>
+  </si>
+  <si>
+    <t>Completed Member Portal</t>
+  </si>
+  <si>
+    <t>Completed Authorization API</t>
+  </si>
+  <si>
+    <t>Swagger Implemented</t>
+  </si>
+  <si>
+    <t>completed Subscription service</t>
+  </si>
+  <si>
+    <t>swagger Implemented</t>
+  </si>
+  <si>
+    <t>working on Refill Microservice</t>
+  </si>
+  <si>
+    <t>working on Drug MicroService</t>
+  </si>
+  <si>
+    <t>services are completed almost</t>
+  </si>
+  <si>
+    <t>Integration with other services will</t>
+  </si>
+  <si>
+    <t>be completed by tommorow</t>
+  </si>
+  <si>
+    <t>working on Integration part</t>
+  </si>
+  <si>
+    <t>working on Autherization</t>
+  </si>
+  <si>
+    <t>working on Integration</t>
+  </si>
+  <si>
+    <t>Working on Integration</t>
+  </si>
+  <si>
+    <t>All services are completed</t>
+  </si>
+  <si>
+    <t>reviewing Integration parts</t>
   </si>
 </sst>
 </file>
@@ -407,19 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F8"/>
+  <dimension ref="A3:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,6 +533,125 @@
     <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Status Update.xlsx
+++ b/Status Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>reviewing Integration parts</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Design and Coding is Completed</t>
+  </si>
+  <si>
+    <t>Working on Unit Testing</t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F20"/>
+  <dimension ref="A3:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,6 +661,51 @@
       </c>
       <c r="F20" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="F28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Status Update.xlsx
+++ b/Status Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Working on Unit Testing</t>
+  </si>
+  <si>
+    <t>Nunit Testing Completed</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F28"/>
+  <dimension ref="A3:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,6 +709,51 @@
     <row r="28" spans="1:6">
       <c r="F28" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="F35" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Status Update.xlsx
+++ b/Status Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>Nunit Testing Completed</t>
+  </si>
+  <si>
+    <t>working On Cloud Deployment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +139,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF323130"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,12 +189,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F35"/>
+  <dimension ref="A3:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -755,6 +784,74 @@
       <c r="F35" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.75">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.75">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.75">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75">
+      <c r="B55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Status Update.xlsx
+++ b/Status Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,23 +144,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF323130"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,17 +176,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -498,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,23 +818,58 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="50" spans="2:2" ht="15.75">
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="2:2" ht="15.75">
-      <c r="B51" s="4"/>
-    </row>
-    <row r="53" spans="2:2" ht="15.75">
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="2:2" ht="15.75">
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="2:2" ht="15.75">
-      <c r="B55" s="4"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75">
+      <c r="B55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Status Update.xlsx
+++ b/Status Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>working On Cloud Deployment</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>Cloud Deployment Almost Completed</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F55"/>
+  <dimension ref="A3:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,6 +876,46 @@
     </row>
     <row r="55" spans="1:6" ht="15.75">
       <c r="B55" s="3"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Status Update.xlsx
+++ b/Status Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F60"/>
+  <dimension ref="A3:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -915,6 +915,46 @@
       </c>
       <c r="F60" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
